--- a/docs/excel/TChampionshipPrize.xlsx
+++ b/docs/excel/TChampionshipPrize.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="29">
   <si>
     <t>RepeatCheck:true MakeIndex:true json:"id"</t>
   </si>
@@ -99,12 +99,60 @@
     <t>TableName: "ChampionshipPrize" Package: "table" CSClassHeader: "[System.Serializable]"</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>最小排名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最大排名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>奖励</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>id</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>对应</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>prize</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <name val="Verdana"/>
@@ -131,6 +179,12 @@
       <color rgb="FF000000"/>
       <name val="Verdana"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="3">
@@ -165,7 +219,7 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyBorder="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -179,6 +233,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -519,8 +576,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E471"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+    <sheetView tabSelected="1" topLeftCell="A448" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I460" sqref="I460"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -574,8 +631,18 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="4"/>
-      <c r="B4" s="4"/>
-      <c r="C4" s="4"/>
+      <c r="B4" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="6">
